--- a/結合テスト/ACE_結合テスト_シナリオ一覧.xlsx
+++ b/結合テスト/ACE_結合テスト_シナリオ一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kohei.shimizu\Documents\workspace\ACECoding\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://avantg.sharepoint.com/teams/A862/Shared Documents/チームA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99B8EC9B-A055-4221-852E-D78775D8C34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0EA482B-5D07-4858-BD62-9B44C7C2E284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1750" windowWidth="14400" windowHeight="8170" xr2:uid="{D4AD0730-A377-4EF7-A1DB-6931266C35A9}"/>
+    <workbookView minimized="1" xWindow="4800" yWindow="1750" windowWidth="14400" windowHeight="8170" xr2:uid="{D4AD0730-A377-4EF7-A1DB-6931266C35A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="161">
   <si>
     <t>ryohin結合テストシナリオ一覧</t>
     <phoneticPr fontId="1"/>
@@ -137,16 +137,7 @@
     <t>1-7</t>
   </si>
   <si>
-    <t>存在しないページ番号のリクエスト</t>
-  </si>
-  <si>
-    <t>DBに商品データが存在しない場合、空のJSON配列 [] が返却される（HTTPステータス：200 OK）</t>
-  </si>
-  <si>
-    <t>1-8</t>
-  </si>
-  <si>
-    <t>DB接続エラー（任意）</t>
+    <t>DB接続エラー</t>
   </si>
   <si>
     <t xml:space="preserve">	DB接続エラーが発生した場合、500 Internal Server Error が返却される</t>
@@ -561,14 +552,14 @@
   </si>
   <si>
     <t>500 Internal Server Error。
-DBへの注文情報登録・在庫更新は行われない(ロールバック)。</t>
+DBへの会員情報登録は行われない(ロールバック)。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1154,33 +1145,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B58C232-3412-462C-AB01-3FF28E9C0C9E}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="C56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.58203125" style="2"/>
-    <col min="3" max="3" width="52.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="2"/>
+    <col min="3" max="3" width="52.375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="54.08203125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.58203125" style="3"/>
+    <col min="5" max="5" width="54.125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="8.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1197,7 +1188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" ht="36">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
@@ -1214,7 +1205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" ht="36">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>12</v>
@@ -1229,7 +1220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" ht="36">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
@@ -1246,7 +1237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" ht="36">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
@@ -1261,7 +1252,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" ht="36">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
         <v>25</v>
@@ -1276,7 +1267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" ht="36">
       <c r="A10" s="23"/>
       <c r="B10" s="24" t="s">
         <v>28</v>
@@ -1291,7 +1282,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" ht="53.25" customHeight="1">
       <c r="A11" s="20"/>
       <c r="B11" s="21" t="s">
         <v>31</v>
@@ -1306,61 +1297,61 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="20" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="54">
+      <c r="A15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="22" t="s">
+      <c r="C15" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
+      <c r="D15" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="E15" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="36">
+      <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" ht="36">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
         <v>42</v>
@@ -1369,13 +1360,13 @@
         <v>43</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" ht="36">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>45</v>
@@ -1384,59 +1375,61 @@
         <v>46</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="36">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="36">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="36">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="8"/>
+    <row r="22" spans="1:5" ht="42.75" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="B22" s="9" t="s">
         <v>60</v>
       </c>
@@ -1444,30 +1437,28 @@
         <v>61</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="8" t="s">
-        <v>16</v>
-      </c>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="39.75" customHeight="1">
+      <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="24" spans="1:5" ht="39" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="9" t="s">
         <v>67</v>
@@ -1479,10 +1470,10 @@
         <v>69</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="39" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="9" t="s">
         <v>70</v>
@@ -1494,10 +1485,10 @@
         <v>72</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="45.75" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
         <v>73</v>
@@ -1509,10 +1500,10 @@
         <v>75</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="39" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
         <v>76</v>
@@ -1524,10 +1515,10 @@
         <v>78</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="42" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
         <v>79</v>
@@ -1539,83 +1530,86 @@
         <v>81</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75"/>
+    <row r="30" spans="1:5" ht="15.75">
+      <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="B30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75">
+      <c r="A31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="60.75">
+      <c r="A32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="C32" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="1" t="s">
+      <c r="D32" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="E32" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30.75">
+      <c r="A33" s="8"/>
       <c r="B33" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75">
       <c r="A34" s="8"/>
       <c r="B34" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="8"/>
+    <row r="35" spans="1:5" ht="30.75">
+      <c r="A35" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="B35" s="9" t="s">
         <v>94</v>
       </c>
@@ -1623,45 +1617,43 @@
         <v>95</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="8" t="s">
-        <v>16</v>
-      </c>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="60.75">
+      <c r="A36" s="8"/>
       <c r="B36" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="54" x14ac:dyDescent="0.55000000000000004">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="60.75">
       <c r="A37" s="8"/>
       <c r="B37" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="54" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="38" spans="1:5" ht="30.75">
       <c r="A38" s="8"/>
       <c r="B38" s="9" t="s">
         <v>105</v>
@@ -1673,10 +1665,10 @@
         <v>107</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30.75">
       <c r="A39" s="8"/>
       <c r="B39" s="9" t="s">
         <v>108</v>
@@ -1685,184 +1677,184 @@
         <v>109</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30.75">
       <c r="A40" s="8"/>
       <c r="B40" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="D40" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30.75">
       <c r="A41" s="8"/>
       <c r="B41" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>114</v>
-      </c>
       <c r="D41" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30.75">
       <c r="A42" s="8"/>
       <c r="B42" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="D42" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30.75">
       <c r="A43" s="8"/>
       <c r="B43" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="D43" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>110</v>
-      </c>
       <c r="E43" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="45.75">
       <c r="A44" s="8"/>
       <c r="B44" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="54" x14ac:dyDescent="0.55000000000000004">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="45.75">
       <c r="A45" s="8"/>
       <c r="B45" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="54" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="60.75">
       <c r="A46" s="8"/>
       <c r="B46" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="8"/>
-      <c r="B47" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="8" t="s">
+    </row>
+    <row r="47" spans="1:5" ht="15.75">
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75">
+      <c r="A48" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="B48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75">
+      <c r="A49" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="64.5" customHeight="1">
+      <c r="A50" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="C50" s="18" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="11" t="s">
+      <c r="D50" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E50" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="77.25" customHeight="1">
       <c r="A51" s="16" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C51" s="18" t="s">
         <v>137</v>
       </c>
+      <c r="C51" s="17" t="s">
+        <v>138</v>
+      </c>
       <c r="D51" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="16" t="s">
-        <v>16</v>
-      </c>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="81" customHeight="1">
+      <c r="A52" s="16"/>
       <c r="B52" s="19" t="s">
         <v>140</v>
       </c>
@@ -1870,59 +1862,61 @@
         <v>141</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="75.75" customHeight="1">
       <c r="A53" s="16"/>
       <c r="B53" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C53" s="17" t="s">
-        <v>144</v>
-      </c>
       <c r="D53" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="75.75" customHeight="1">
       <c r="A54" s="16"/>
       <c r="B54" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="C54" s="17" t="s">
-        <v>146</v>
-      </c>
       <c r="D54" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="75.75" customHeight="1">
       <c r="A55" s="16"/>
       <c r="B55" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="D55" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="75.75" customHeight="1">
+      <c r="A56" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="D55" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="16"/>
       <c r="B56" s="19" t="s">
         <v>149</v>
       </c>
@@ -1930,81 +1924,66 @@
         <v>150</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="75.75" customHeight="1">
+      <c r="A57" s="16"/>
+      <c r="B57" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="C57" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="D57" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="75.75" customHeight="1">
+      <c r="A58" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="D57" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="16"/>
-      <c r="B58" s="19" t="s">
+      <c r="C58" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="D58" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="D58" s="18" t="s">
-        <v>142</v>
-      </c>
       <c r="E58" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="86.25" customHeight="1">
       <c r="A59" s="16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B60" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="C60" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="E60" s="18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="62" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="63" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    </row>
+    <row r="60" spans="1:5" ht="86.25" customHeight="1"/>
+    <row r="61" spans="1:5" ht="86.25" customHeight="1"/>
+    <row r="62" spans="1:5" ht="72" customHeight="1"/>
+    <row r="63" spans="1:5" ht="15.75"/>
+    <row r="64" spans="1:5" ht="15.75"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2012,6 +1991,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010095427D0A133F1945A459B14746BEAD46" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="4d11f6ce7e826e0d3147dd4d1200ebac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5165f5d5-c765-48aa-baa9-75f6420c393a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="47f323130949bfec407010aaaa572b48" ns2:_="">
     <xsd:import namespace="5165f5d5-c765-48aa-baa9-75f6420c393a"/>
@@ -2149,59 +2143,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B83271E-36DD-452C-A4D6-EA0127065B64}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5165f5d5-c765-48aa-baa9-75f6420c393a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F70C6A45-899E-4694-8934-B88F393BD1B4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F70C6A45-899E-4694-8934-B88F393BD1B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="5165f5d5-c765-48aa-baa9-75f6420c393a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E4A8302-83FF-4047-B1A6-087F506AD058}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E4A8302-83FF-4047-B1A6-087F506AD058}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B83271E-36DD-452C-A4D6-EA0127065B64}"/>
 </file>